--- a/orders.xlsx
+++ b/orders.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="orders" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>id</t>
   </si>
@@ -34,19 +34,13 @@
   <si>
     <t>cust_id</t>
   </si>
-  <si>
-    <t>prod_id</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -93,8 +87,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -375,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,7 +379,7 @@
     <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -395,14 +389,8 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -413,7 +401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -424,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -435,7 +423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -446,7 +434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>date</t>
   </si>
@@ -78,16 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -369,79 +359,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45250</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45257</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>45265</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>45268</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>45281</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>4</v>
       </c>
     </row>
